--- a/metrics/transfer_time/cleaned_data/nginx_11.vda.xlsx
+++ b/metrics/transfer_time/cleaned_data/nginx_11.vda.xlsx
@@ -496,7 +496,9 @@
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
@@ -526,7 +528,9 @@
       <c r="B3" t="n">
         <v>0</v>
       </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
       <c r="D3" t="n">
         <v>3</v>
       </c>
@@ -556,7 +560,9 @@
       <c r="B4" t="n">
         <v>0</v>
       </c>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
@@ -586,7 +592,9 @@
       <c r="B5" t="n">
         <v>0</v>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
       <c r="D5" t="n">
         <v>0.4</v>
       </c>
@@ -616,7 +624,9 @@
       <c r="B6" t="n">
         <v>0</v>
       </c>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
       <c r="D6" t="n">
         <v>0.57</v>
       </c>
@@ -646,7 +656,9 @@
       <c r="B7" t="n">
         <v>0</v>
       </c>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>8</v>
+      </c>
       <c r="D7" t="n">
         <v>0.4</v>
       </c>
@@ -676,7 +688,9 @@
       <c r="B8" t="n">
         <v>0</v>
       </c>
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" t="n">
+        <v>8</v>
+      </c>
       <c r="D8" t="n">
         <v>0.29</v>
       </c>
@@ -706,7 +720,9 @@
       <c r="B9" t="n">
         <v>0</v>
       </c>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="n">
+        <v>8</v>
+      </c>
       <c r="D9" t="n">
         <v>0.5</v>
       </c>
@@ -736,7 +752,9 @@
       <c r="B10" t="n">
         <v>0</v>
       </c>
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
       <c r="D10" t="n">
         <v>0.5</v>
       </c>
@@ -766,7 +784,9 @@
       <c r="B11" t="n">
         <v>0</v>
       </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" t="n">
+        <v>8</v>
+      </c>
       <c r="D11" t="n">
         <v>0.5</v>
       </c>
@@ -796,7 +816,9 @@
       <c r="B12" t="n">
         <v>0</v>
       </c>
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" t="n">
+        <v>8</v>
+      </c>
       <c r="D12" t="n">
         <v>0.33</v>
       </c>
@@ -826,7 +848,9 @@
       <c r="B13" t="n">
         <v>0</v>
       </c>
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" t="n">
+        <v>8</v>
+      </c>
       <c r="D13" t="n">
         <v>1</v>
       </c>
@@ -856,7 +880,9 @@
       <c r="B14" t="n">
         <v>0</v>
       </c>
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" t="n">
+        <v>8</v>
+      </c>
       <c r="D14" t="n">
         <v>0.5</v>
       </c>
@@ -886,7 +912,9 @@
       <c r="B15" t="n">
         <v>0</v>
       </c>
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" t="n">
+        <v>8</v>
+      </c>
       <c r="D15" t="n">
         <v>0.5</v>
       </c>
@@ -916,7 +944,9 @@
       <c r="B16" t="n">
         <v>0</v>
       </c>
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" t="n">
+        <v>8</v>
+      </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
@@ -946,7 +976,9 @@
       <c r="B17" t="n">
         <v>0</v>
       </c>
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" t="n">
+        <v>8</v>
+      </c>
       <c r="D17" t="n">
         <v>0.77</v>
       </c>
@@ -976,7 +1008,9 @@
       <c r="B18" t="n">
         <v>0</v>
       </c>
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" t="n">
+        <v>8</v>
+      </c>
       <c r="D18" t="n">
         <v>0.67</v>
       </c>
@@ -1006,7 +1040,9 @@
       <c r="B19" t="n">
         <v>0</v>
       </c>
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" t="n">
+        <v>8</v>
+      </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
@@ -1036,7 +1072,9 @@
       <c r="B20" t="n">
         <v>0</v>
       </c>
-      <c r="C20" t="inlineStr"/>
+      <c r="C20" t="n">
+        <v>8</v>
+      </c>
       <c r="D20" t="n">
         <v>0.5</v>
       </c>
@@ -1066,7 +1104,9 @@
       <c r="B21" t="n">
         <v>0</v>
       </c>
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" t="n">
+        <v>8</v>
+      </c>
       <c r="D21" t="n">
         <v>1</v>
       </c>
@@ -1096,7 +1136,9 @@
       <c r="B22" t="n">
         <v>0</v>
       </c>
-      <c r="C22" t="inlineStr"/>
+      <c r="C22" t="n">
+        <v>8</v>
+      </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
@@ -1126,7 +1168,9 @@
       <c r="B23" t="n">
         <v>0</v>
       </c>
-      <c r="C23" t="inlineStr"/>
+      <c r="C23" t="n">
+        <v>8</v>
+      </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
@@ -1156,7 +1200,9 @@
       <c r="B24" t="n">
         <v>0</v>
       </c>
-      <c r="C24" t="inlineStr"/>
+      <c r="C24" t="n">
+        <v>8</v>
+      </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
@@ -1186,7 +1232,9 @@
       <c r="B25" t="n">
         <v>0</v>
       </c>
-      <c r="C25" t="inlineStr"/>
+      <c r="C25" t="n">
+        <v>8</v>
+      </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
@@ -1216,7 +1264,9 @@
       <c r="B26" t="n">
         <v>0</v>
       </c>
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" t="n">
+        <v>8</v>
+      </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
@@ -1246,7 +1296,9 @@
       <c r="B27" t="n">
         <v>0.01</v>
       </c>
-      <c r="C27" t="inlineStr"/>
+      <c r="C27" t="n">
+        <v>8</v>
+      </c>
       <c r="D27" t="n">
         <v>1</v>
       </c>
@@ -1276,7 +1328,9 @@
       <c r="B28" t="n">
         <v>0</v>
       </c>
-      <c r="C28" t="inlineStr"/>
+      <c r="C28" t="n">
+        <v>8</v>
+      </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
@@ -1306,7 +1360,9 @@
       <c r="B29" t="n">
         <v>0</v>
       </c>
-      <c r="C29" t="inlineStr"/>
+      <c r="C29" t="n">
+        <v>8</v>
+      </c>
       <c r="D29" t="n">
         <v>0.33</v>
       </c>
@@ -1336,7 +1392,9 @@
       <c r="B30" t="n">
         <v>0</v>
       </c>
-      <c r="C30" t="inlineStr"/>
+      <c r="C30" t="n">
+        <v>8</v>
+      </c>
       <c r="D30" t="n">
         <v>1</v>
       </c>
@@ -1366,7 +1424,9 @@
       <c r="B31" t="n">
         <v>0</v>
       </c>
-      <c r="C31" t="inlineStr"/>
+      <c r="C31" t="n">
+        <v>8</v>
+      </c>
       <c r="D31" t="n">
         <v>0.4</v>
       </c>
@@ -1396,7 +1456,9 @@
       <c r="B32" t="n">
         <v>0</v>
       </c>
-      <c r="C32" t="inlineStr"/>
+      <c r="C32" t="n">
+        <v>8</v>
+      </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
@@ -1426,7 +1488,9 @@
       <c r="B33" t="n">
         <v>0</v>
       </c>
-      <c r="C33" t="inlineStr"/>
+      <c r="C33" t="n">
+        <v>8</v>
+      </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
@@ -1456,7 +1520,9 @@
       <c r="B34" t="n">
         <v>0</v>
       </c>
-      <c r="C34" t="inlineStr"/>
+      <c r="C34" t="n">
+        <v>8</v>
+      </c>
       <c r="D34" t="n">
         <v>0.5</v>
       </c>
@@ -1486,7 +1552,9 @@
       <c r="B35" t="n">
         <v>0</v>
       </c>
-      <c r="C35" t="inlineStr"/>
+      <c r="C35" t="n">
+        <v>8</v>
+      </c>
       <c r="D35" t="n">
         <v>0.6</v>
       </c>
@@ -1516,7 +1584,9 @@
       <c r="B36" t="n">
         <v>0</v>
       </c>
-      <c r="C36" t="inlineStr"/>
+      <c r="C36" t="n">
+        <v>8</v>
+      </c>
       <c r="D36" t="n">
         <v>0.5</v>
       </c>
@@ -1546,7 +1616,9 @@
       <c r="B37" t="n">
         <v>0</v>
       </c>
-      <c r="C37" t="inlineStr"/>
+      <c r="C37" t="n">
+        <v>8</v>
+      </c>
       <c r="D37" t="n">
         <v>0.5</v>
       </c>
@@ -1576,7 +1648,9 @@
       <c r="B38" t="n">
         <v>0</v>
       </c>
-      <c r="C38" t="inlineStr"/>
+      <c r="C38" t="n">
+        <v>8</v>
+      </c>
       <c r="D38" t="n">
         <v>1</v>
       </c>
@@ -1606,7 +1680,9 @@
       <c r="B39" t="n">
         <v>0</v>
       </c>
-      <c r="C39" t="inlineStr"/>
+      <c r="C39" t="n">
+        <v>8</v>
+      </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
@@ -1636,7 +1712,9 @@
       <c r="B40" t="n">
         <v>0</v>
       </c>
-      <c r="C40" t="inlineStr"/>
+      <c r="C40" t="n">
+        <v>8</v>
+      </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
@@ -1666,7 +1744,9 @@
       <c r="B41" t="n">
         <v>0</v>
       </c>
-      <c r="C41" t="inlineStr"/>
+      <c r="C41" t="n">
+        <v>8</v>
+      </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
@@ -1696,7 +1776,9 @@
       <c r="B42" t="n">
         <v>0</v>
       </c>
-      <c r="C42" t="inlineStr"/>
+      <c r="C42" t="n">
+        <v>8</v>
+      </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
@@ -1726,7 +1808,9 @@
       <c r="B43" t="n">
         <v>0</v>
       </c>
-      <c r="C43" t="inlineStr"/>
+      <c r="C43" t="n">
+        <v>8</v>
+      </c>
       <c r="D43" t="n">
         <v>1</v>
       </c>
@@ -1756,7 +1840,9 @@
       <c r="B44" t="n">
         <v>0</v>
       </c>
-      <c r="C44" t="inlineStr"/>
+      <c r="C44" t="n">
+        <v>8</v>
+      </c>
       <c r="D44" t="n">
         <v>0.5</v>
       </c>
@@ -1786,7 +1872,9 @@
       <c r="B45" t="n">
         <v>0</v>
       </c>
-      <c r="C45" t="inlineStr"/>
+      <c r="C45" t="n">
+        <v>8</v>
+      </c>
       <c r="D45" t="n">
         <v>1</v>
       </c>
@@ -1816,7 +1904,9 @@
       <c r="B46" t="n">
         <v>0</v>
       </c>
-      <c r="C46" t="inlineStr"/>
+      <c r="C46" t="n">
+        <v>8</v>
+      </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
@@ -1846,7 +1936,9 @@
       <c r="B47" t="n">
         <v>0</v>
       </c>
-      <c r="C47" t="inlineStr"/>
+      <c r="C47" t="n">
+        <v>8</v>
+      </c>
       <c r="D47" t="n">
         <v>0</v>
       </c>
@@ -1876,7 +1968,9 @@
       <c r="B48" t="n">
         <v>0</v>
       </c>
-      <c r="C48" t="inlineStr"/>
+      <c r="C48" t="n">
+        <v>8</v>
+      </c>
       <c r="D48" t="n">
         <v>1</v>
       </c>
@@ -1906,7 +2000,9 @@
       <c r="B49" t="n">
         <v>0</v>
       </c>
-      <c r="C49" t="inlineStr"/>
+      <c r="C49" t="n">
+        <v>8</v>
+      </c>
       <c r="D49" t="n">
         <v>0</v>
       </c>
@@ -1936,7 +2032,9 @@
       <c r="B50" t="n">
         <v>0</v>
       </c>
-      <c r="C50" t="inlineStr"/>
+      <c r="C50" t="n">
+        <v>8</v>
+      </c>
       <c r="D50" t="n">
         <v>0</v>
       </c>
@@ -1966,7 +2064,9 @@
       <c r="B51" t="n">
         <v>0</v>
       </c>
-      <c r="C51" t="inlineStr"/>
+      <c r="C51" t="n">
+        <v>8</v>
+      </c>
       <c r="D51" t="n">
         <v>1</v>
       </c>
@@ -1996,7 +2096,9 @@
       <c r="B52" t="n">
         <v>0</v>
       </c>
-      <c r="C52" t="inlineStr"/>
+      <c r="C52" t="n">
+        <v>8</v>
+      </c>
       <c r="D52" t="n">
         <v>0</v>
       </c>
@@ -2026,7 +2128,9 @@
       <c r="B53" t="n">
         <v>0</v>
       </c>
-      <c r="C53" t="inlineStr"/>
+      <c r="C53" t="n">
+        <v>8</v>
+      </c>
       <c r="D53" t="n">
         <v>1</v>
       </c>
@@ -2056,7 +2160,9 @@
       <c r="B54" t="n">
         <v>0</v>
       </c>
-      <c r="C54" t="inlineStr"/>
+      <c r="C54" t="n">
+        <v>8</v>
+      </c>
       <c r="D54" t="n">
         <v>0</v>
       </c>
@@ -2086,7 +2192,9 @@
       <c r="B55" t="n">
         <v>0</v>
       </c>
-      <c r="C55" t="inlineStr"/>
+      <c r="C55" t="n">
+        <v>8</v>
+      </c>
       <c r="D55" t="n">
         <v>0.55</v>
       </c>
@@ -2116,7 +2224,9 @@
       <c r="B56" t="n">
         <v>0</v>
       </c>
-      <c r="C56" t="inlineStr"/>
+      <c r="C56" t="n">
+        <v>8</v>
+      </c>
       <c r="D56" t="n">
         <v>0</v>
       </c>
@@ -2146,7 +2256,9 @@
       <c r="B57" t="n">
         <v>0</v>
       </c>
-      <c r="C57" t="inlineStr"/>
+      <c r="C57" t="n">
+        <v>8</v>
+      </c>
       <c r="D57" t="n">
         <v>0.82</v>
       </c>
@@ -2176,7 +2288,9 @@
       <c r="B58" t="n">
         <v>0</v>
       </c>
-      <c r="C58" t="inlineStr"/>
+      <c r="C58" t="n">
+        <v>8</v>
+      </c>
       <c r="D58" t="n">
         <v>1</v>
       </c>
@@ -2206,7 +2320,9 @@
       <c r="B59" t="n">
         <v>0</v>
       </c>
-      <c r="C59" t="inlineStr"/>
+      <c r="C59" t="n">
+        <v>8</v>
+      </c>
       <c r="D59" t="n">
         <v>0</v>
       </c>
@@ -2236,7 +2352,9 @@
       <c r="B60" t="n">
         <v>0</v>
       </c>
-      <c r="C60" t="inlineStr"/>
+      <c r="C60" t="n">
+        <v>8</v>
+      </c>
       <c r="D60" t="n">
         <v>0</v>
       </c>
@@ -2266,7 +2384,9 @@
       <c r="B61" t="n">
         <v>0</v>
       </c>
-      <c r="C61" t="inlineStr"/>
+      <c r="C61" t="n">
+        <v>8</v>
+      </c>
       <c r="D61" t="n">
         <v>0</v>
       </c>
